--- a/project/TBM/data/生产bom项目经理导入模板.xlsx
+++ b/project/TBM/data/生产bom项目经理导入模板.xlsx
@@ -2363,6 +2363,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -2370,17 +2375,17 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="19"/>
-      <name val="微软雅黑"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="19"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2392,13 +2397,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color indexed="19"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -17653,7 +17653,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71666666666667" defaultRowHeight="13.5"/>
@@ -18724,14 +18724,14 @@
     </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37">
+      <formula1>"试产,量产,转量产"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37">
       <formula1>"已归档,未归档,不归档"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37">
       <formula1>"国内生产BOM,海外生产BOM,计划BOM,发货BOM"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37">
-      <formula1>"试产,量产,转量产"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I1001">
       <formula1>Sheet3!$A$1:$A$10000</formula1>
